--- a/RawData/effects_of_dilute_acid_pretreatment_conditions_on_enzymatic_hydrolysis_monomer_and_oligomer_sugar_yields.xlsx
+++ b/RawData/effects_of_dilute_acid_pretreatment_conditions_on_enzymatic_hydrolysis_monomer_and_oligomer_sugar_yields.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/Fourth Year/Renamed_Data/1 - Monomeric Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/GitHub/Hemicellulose(July 3rd)/HemicelluloseMachineLearning/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE6AAC6-3180-E542-886B-037247825CF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AF82F2-388D-4E49-8F62-6F50907E21C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51060" yWindow="1700" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2309,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2430,7 +2430,7 @@
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f>H3+I3</f>
-        <v>4.0567568525101301</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>175</v>
@@ -2449,7 +2449,7 @@
         <v>0.5</v>
       </c>
       <c r="H3">
-        <v>5.6756852510130074E-2</v>
+        <v>2</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
@@ -2472,7 +2472,7 @@
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A22" si="3">H4+I4</f>
-        <v>4.5606953482055301</v>
+        <v>6.75</v>
       </c>
       <c r="B4">
         <v>175</v>
@@ -2491,7 +2491,7 @@
         <v>0.5</v>
       </c>
       <c r="H4">
-        <v>0.56069534820553013</v>
+        <v>2.75</v>
       </c>
       <c r="I4" s="3">
         <v>4</v>
@@ -2514,7 +2514,7 @@
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="3"/>
-        <v>5.0630277407088098</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>175</v>
@@ -2533,7 +2533,7 @@
         <v>0.5</v>
       </c>
       <c r="H5">
-        <v>1.0630277407088098</v>
+        <v>3</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -2556,7 +2556,7 @@
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="3"/>
-        <v>6.0661808991816004</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>175</v>
@@ -2575,7 +2575,7 @@
         <v>0.5</v>
       </c>
       <c r="H6">
-        <v>2.0661808991816004</v>
+        <v>4</v>
       </c>
       <c r="I6" s="3">
         <v>4</v>
@@ -2598,7 +2598,7 @@
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="3"/>
-        <v>8.0393259090425992</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>175</v>
@@ -2617,7 +2617,7 @@
         <v>0.5</v>
       </c>
       <c r="H7">
-        <v>4.0393259090426001</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3">
         <v>4</v>
@@ -2640,7 +2640,7 @@
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="3"/>
-        <v>10.020501434864251</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>175</v>
@@ -2659,7 +2659,7 @@
         <v>0.5</v>
       </c>
       <c r="H8">
-        <v>6.0205014348642507</v>
+        <v>8</v>
       </c>
       <c r="I8" s="3">
         <v>4</v>
@@ -2682,7 +2682,7 @@
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="3"/>
-        <v>12.0068731768957</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>175</v>
@@ -2701,7 +2701,7 @@
         <v>0.5</v>
       </c>
       <c r="H9">
-        <v>8.0068731768957004</v>
+        <v>10</v>
       </c>
       <c r="I9" s="3">
         <v>4</v>
@@ -2724,7 +2724,7 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="3"/>
-        <v>13.0546193181147</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>175</v>
@@ -2743,7 +2743,7 @@
         <v>0.5</v>
       </c>
       <c r="H10">
-        <v>9.0546193181146997</v>
+        <v>11</v>
       </c>
       <c r="I10" s="3">
         <v>4</v>
@@ -2766,7 +2766,7 @@
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="3"/>
-        <v>15.006696033161299</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>175</v>
@@ -2785,7 +2785,7 @@
         <v>0.5</v>
       </c>
       <c r="H11">
-        <v>11.006696033161299</v>
+        <v>13</v>
       </c>
       <c r="I11" s="3">
         <v>4</v>
@@ -2808,7 +2808,7 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="3"/>
-        <v>24.003897162157401</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>175</v>
@@ -2827,7 +2827,7 @@
         <v>0.5</v>
       </c>
       <c r="H12">
-        <v>20.003897162157401</v>
+        <v>22</v>
       </c>
       <c r="I12" s="3">
         <v>4</v>
@@ -2850,7 +2850,7 @@
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="3"/>
-        <v>5.0007983334788602</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>160</v>
@@ -2869,7 +2869,7 @@
         <v>0.5</v>
       </c>
       <c r="H13">
-        <v>1.0007983334788602</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
         <v>4</v>
@@ -2892,7 +2892,7 @@
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="3"/>
-        <v>6.02338867613856</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>160</v>
@@ -2911,7 +2911,7 @@
         <v>0.5</v>
       </c>
       <c r="H14">
-        <v>2.02338867613856</v>
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>4</v>
@@ -2935,7 +2935,7 @@
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="3"/>
-        <v>8.0161912008681888</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>160</v>
@@ -2954,7 +2954,7 @@
         <v>0.5</v>
       </c>
       <c r="H15">
-        <v>4.0161912008681897</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
         <v>4</v>
@@ -2978,7 +2978,7 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="3"/>
-        <v>11.03385432908803</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>160</v>
@@ -2997,7 +2997,7 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>7.0338543290880295</v>
+        <v>9</v>
       </c>
       <c r="I16" s="3">
         <v>4</v>
@@ -3021,7 +3021,7 @@
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="3"/>
-        <v>14.0430850599374</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>160</v>
@@ -3040,7 +3040,7 @@
         <v>0.5</v>
       </c>
       <c r="H17">
-        <v>10.0430850599374</v>
+        <v>12</v>
       </c>
       <c r="I17" s="3">
         <v>4</v>
@@ -3064,7 +3064,7 @@
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="3"/>
-        <v>17.044694200855702</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>160</v>
@@ -3083,7 +3083,7 @@
         <v>0.5</v>
       </c>
       <c r="H18">
-        <v>13.0446942008557</v>
+        <v>15</v>
       </c>
       <c r="I18" s="3">
         <v>4</v>
@@ -3108,7 +3108,7 @@
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="3"/>
-        <v>20.045006049870899</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>160</v>
@@ -3127,7 +3127,7 @@
         <v>0.5</v>
       </c>
       <c r="H19">
-        <v>16.045006049870899</v>
+        <v>18</v>
       </c>
       <c r="I19" s="3">
         <v>4</v>
@@ -3152,7 +3152,7 @@
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" si="3"/>
-        <v>26.104170045031001</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>160</v>
@@ -3171,7 +3171,7 @@
         <v>0.5</v>
       </c>
       <c r="H20">
-        <v>22.104170045031001</v>
+        <v>24</v>
       </c>
       <c r="I20" s="3">
         <v>4</v>
@@ -3196,7 +3196,7 @@
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" si="3"/>
-        <v>32.1021991592551</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>160</v>
@@ -3215,7 +3215,7 @@
         <v>0.5</v>
       </c>
       <c r="H21">
-        <v>28.1021991592551</v>
+        <v>30</v>
       </c>
       <c r="I21" s="3">
         <v>4</v>
@@ -3240,7 +3240,7 @@
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f t="shared" si="3"/>
-        <v>38.096822882233297</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>160</v>
@@ -3259,7 +3259,7 @@
         <v>0.5</v>
       </c>
       <c r="H22">
-        <v>34.096822882233297</v>
+        <v>36</v>
       </c>
       <c r="I22" s="3">
         <v>4</v>

--- a/RawData/effects_of_dilute_acid_pretreatment_conditions_on_enzymatic_hydrolysis_monomer_and_oligomer_sugar_yields.xlsx
+++ b/RawData/effects_of_dilute_acid_pretreatment_conditions_on_enzymatic_hydrolysis_monomer_and_oligomer_sugar_yields.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/GitHub/Hemicellulose(July 3rd)/HemicelluloseMachineLearning/RawData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/GitHub/Hemicellulose/HemicelluloseMachineLearning/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AF82F2-388D-4E49-8F62-6F50907E21C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451190D0-2CF3-DE43-889E-811420AFFEF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2309,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
